--- a/iTol_BASJ/ccr_iTol/ccr_allotypes.xlsx
+++ b/iTol_BASJ/ccr_iTol/ccr_allotypes.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/MPV/projects/git.repositories/SCCmec/iTol_BASJ/ccr_iTol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10EE133-FBCE-7B4C-8BC6-1A0A5E32CC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2247D260-F58A-0A4A-BDAE-734E62E1AA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42360" yWindow="1580" windowWidth="35880" windowHeight="17720" activeTab="2" xr2:uid="{B69685E1-6DA6-4E4D-99B6-74801BD17126}"/>
+    <workbookView xWindow="31240" yWindow="3000" windowWidth="35880" windowHeight="17720" activeTab="2" xr2:uid="{B69685E1-6DA6-4E4D-99B6-74801BD17126}"/>
   </bookViews>
   <sheets>
     <sheet name="ccrA" sheetId="1" r:id="rId1"/>
     <sheet name="ccrA_species" sheetId="2" r:id="rId2"/>
     <sheet name="ccrA_species_color" sheetId="3" r:id="rId3"/>
+    <sheet name="counts" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="554">
   <si>
     <t>uniq_fasta_ID_split</t>
   </si>
@@ -1682,6 +1683,21 @@
   </si>
   <si>
     <t>sort</t>
+  </si>
+  <si>
+    <t>seq_count</t>
+  </si>
+  <si>
+    <t>log10+1</t>
+  </si>
+  <si>
+    <t>LEGEND_SHAPES</t>
+  </si>
+  <si>
+    <t>LEGEND_COLORS</t>
+  </si>
+  <si>
+    <t>LEGEND_LABELS</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2088,7 @@
   <dimension ref="A1:R467"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A12" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7314,8 +7330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42DAAE-D689-8541-9B09-6EDD219B5578}">
   <dimension ref="A1:H467"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11295,10 +11311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A70225-0A64-8A4F-B38B-31AD38047CE4}">
-  <dimension ref="A1:O467"/>
+  <dimension ref="A1:AB467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11678,7 +11694,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -11698,7 +11714,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -11715,7 +11731,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -11723,7 +11739,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -11734,7 +11750,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -11748,31 +11764,175 @@
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>551</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>552</v>
+      </c>
+      <c r="N23" t="s">
+        <v>518</v>
+      </c>
+      <c r="O23" t="s">
+        <v>519</v>
+      </c>
+      <c r="P23" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>521</v>
+      </c>
+      <c r="R23" t="s">
+        <v>522</v>
+      </c>
+      <c r="S23" t="s">
+        <v>523</v>
+      </c>
+      <c r="T23" t="s">
+        <v>524</v>
+      </c>
+      <c r="U23" t="s">
+        <v>525</v>
+      </c>
+      <c r="V23" t="s">
+        <v>526</v>
+      </c>
+      <c r="W23" t="s">
+        <v>527</v>
+      </c>
+      <c r="X23" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>544</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>553</v>
+      </c>
+      <c r="N24" t="s">
+        <v>498</v>
+      </c>
+      <c r="O24" t="s">
+        <v>499</v>
+      </c>
+      <c r="P24" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>501</v>
+      </c>
+      <c r="R24" t="s">
+        <v>504</v>
+      </c>
+      <c r="S24" t="s">
+        <v>503</v>
+      </c>
+      <c r="T24" t="s">
+        <v>502</v>
+      </c>
+      <c r="U24" t="s">
+        <v>509</v>
+      </c>
+      <c r="V24" t="s">
+        <v>529</v>
+      </c>
+      <c r="W24" t="s">
+        <v>506</v>
+      </c>
+      <c r="X24" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -11780,7 +11940,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -11788,7 +11948,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -11799,7 +11959,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11807,7 +11967,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -11818,7 +11978,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -11826,7 +11986,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -11843,7 +12003,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -15412,4 +15572,8431 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F01982E-B540-8147-8A43-5216B3D6001D}">
+  <dimension ref="A1:I467"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>LOG10(B2+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>LOG10(B3+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>LOG10(B4+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>LOG10(B5+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>LOG10(B6+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>LOG10(B7+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>LOG10(B8+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>LOG10(B9+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>LOG10(B10+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>LOG10(B11+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>LOG10(B12+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I12">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>LOG10(B13+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>LOG10(B14+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>LOG10(B15+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H15" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>LOG10(B16+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H16" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>LOG10(B17+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H17" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>LOG10(B18+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>LOG10(B19+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I19">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>LOG10(B20+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H20" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f>LOG10(B21+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H21" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>LOG10(B22+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H22" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f>LOG10(B23+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H23" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f>LOG10(B24+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I24">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f>LOG10(B25+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H25" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f>LOG10(B26+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H26" t="s">
+        <v>249</v>
+      </c>
+      <c r="I26">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f>LOG10(B27+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H27" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f>LOG10(B28+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H28" t="s">
+        <v>256</v>
+      </c>
+      <c r="I28">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f>LOG10(B29+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H29" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f>LOG10(B30+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H30" t="s">
+        <v>262</v>
+      </c>
+      <c r="I30">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f>LOG10(B31+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H31" t="s">
+        <v>265</v>
+      </c>
+      <c r="I31">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f>LOG10(B32+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H32" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f>LOG10(B33+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H33" t="s">
+        <v>269</v>
+      </c>
+      <c r="I33">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f>LOG10(B34+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H34" t="s">
+        <v>271</v>
+      </c>
+      <c r="I34">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f>LOG10(B35+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I35">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f>LOG10(B36+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H36" t="s">
+        <v>274</v>
+      </c>
+      <c r="I36">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f>LOG10(B37+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H37" t="s">
+        <v>275</v>
+      </c>
+      <c r="I37">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f>LOG10(B38+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I38">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f>LOG10(B39+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H39" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f>LOG10(B40+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H40" t="s">
+        <v>279</v>
+      </c>
+      <c r="I40">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>283</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f>LOG10(B41+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H41" t="s">
+        <v>283</v>
+      </c>
+      <c r="I41">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f>LOG10(B42+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H42" t="s">
+        <v>287</v>
+      </c>
+      <c r="I42">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f>LOG10(B43+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H43" t="s">
+        <v>290</v>
+      </c>
+      <c r="I43">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f>LOG10(B44+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H44" t="s">
+        <v>291</v>
+      </c>
+      <c r="I44">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>293</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f>LOG10(B45+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H45" t="s">
+        <v>293</v>
+      </c>
+      <c r="I45">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f>LOG10(B46+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H46" t="s">
+        <v>294</v>
+      </c>
+      <c r="I46">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f>LOG10(B47+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H47" t="s">
+        <v>297</v>
+      </c>
+      <c r="I47">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f>LOG10(B48+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H48" t="s">
+        <v>298</v>
+      </c>
+      <c r="I48">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f>LOG10(B49+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H49" t="s">
+        <v>300</v>
+      </c>
+      <c r="I49">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <f>LOG10(B50+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H50" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f>LOG10(B51+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H51" t="s">
+        <v>303</v>
+      </c>
+      <c r="I51">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f>LOG10(B52+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H52" t="s">
+        <v>305</v>
+      </c>
+      <c r="I52">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f>LOG10(B53+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H53" t="s">
+        <v>306</v>
+      </c>
+      <c r="I53">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>309</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f>LOG10(B54+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H54" t="s">
+        <v>309</v>
+      </c>
+      <c r="I54">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>310</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <f>LOG10(B55+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H55" t="s">
+        <v>310</v>
+      </c>
+      <c r="I55">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>312</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <f>LOG10(B56+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H56" t="s">
+        <v>312</v>
+      </c>
+      <c r="I56">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>315</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <f>LOG10(B57+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H57" t="s">
+        <v>315</v>
+      </c>
+      <c r="I57">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <f>LOG10(B58+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H58" t="s">
+        <v>318</v>
+      </c>
+      <c r="I58">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <f>LOG10(B59+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H59" t="s">
+        <v>322</v>
+      </c>
+      <c r="I59">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>325</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <f>LOG10(B60+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H60" t="s">
+        <v>325</v>
+      </c>
+      <c r="I60">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>327</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <f>LOG10(B61+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H61" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>328</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f>LOG10(B62+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H62" t="s">
+        <v>328</v>
+      </c>
+      <c r="I62">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>329</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f>LOG10(B63+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H63" t="s">
+        <v>329</v>
+      </c>
+      <c r="I63">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>330</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <f>LOG10(B64+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H64" t="s">
+        <v>330</v>
+      </c>
+      <c r="I64">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <f>LOG10(B65+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H65" t="s">
+        <v>258</v>
+      </c>
+      <c r="I65">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>268</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <f>LOG10(B66+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H66" t="s">
+        <v>268</v>
+      </c>
+      <c r="I66">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <f>LOG10(B67+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H67" t="s">
+        <v>280</v>
+      </c>
+      <c r="I67">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <f>LOG10(B68+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H68" t="s">
+        <v>284</v>
+      </c>
+      <c r="I68">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>331</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <f>LOG10(B69+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H69" t="s">
+        <v>331</v>
+      </c>
+      <c r="I69">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>332</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <f>LOG10(B70+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H70" t="s">
+        <v>332</v>
+      </c>
+      <c r="I70">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>337</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <f>LOG10(B71+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H71" t="s">
+        <v>337</v>
+      </c>
+      <c r="I71">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>338</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <f>LOG10(B72+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H72" t="s">
+        <v>338</v>
+      </c>
+      <c r="I72">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <f>LOG10(B73+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H73" t="s">
+        <v>339</v>
+      </c>
+      <c r="I73">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <f>LOG10(B74+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H74" t="s">
+        <v>340</v>
+      </c>
+      <c r="I74">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <f>LOG10(B75+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H75" t="s">
+        <v>182</v>
+      </c>
+      <c r="I75">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <f>LOG10(B76+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H76" t="s">
+        <v>183</v>
+      </c>
+      <c r="I76">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <f>LOG10(B77+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H77" t="s">
+        <v>184</v>
+      </c>
+      <c r="I77">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <f>LOG10(B78+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H78" t="s">
+        <v>288</v>
+      </c>
+      <c r="I78">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <f>LOG10(B79+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H79" t="s">
+        <v>185</v>
+      </c>
+      <c r="I79">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <f>LOG10(B80+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H80" t="s">
+        <v>186</v>
+      </c>
+      <c r="I80">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <f>LOG10(B81+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H81" t="s">
+        <v>187</v>
+      </c>
+      <c r="I81">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <f>LOG10(B82+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H82" t="s">
+        <v>188</v>
+      </c>
+      <c r="I82">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <f>LOG10(B83+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H83" t="s">
+        <v>189</v>
+      </c>
+      <c r="I83">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>354</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <f>LOG10(B84+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H84" t="s">
+        <v>354</v>
+      </c>
+      <c r="I84">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>355</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <f>LOG10(B85+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H85" t="s">
+        <v>355</v>
+      </c>
+      <c r="I85">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <f>LOG10(B86+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H86" t="s">
+        <v>226</v>
+      </c>
+      <c r="I86">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <f>LOG10(B87+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H87" t="s">
+        <v>263</v>
+      </c>
+      <c r="I87">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>353</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <f>LOG10(B88+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H88" t="s">
+        <v>353</v>
+      </c>
+      <c r="I88">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <f>LOG10(B89+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H89" t="s">
+        <v>289</v>
+      </c>
+      <c r="I89">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>292</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <f>LOG10(B90+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H90" t="s">
+        <v>292</v>
+      </c>
+      <c r="I90">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>365</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <f>LOG10(B91+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H91" t="s">
+        <v>365</v>
+      </c>
+      <c r="I91">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>367</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <f>LOG10(B92+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H92" t="s">
+        <v>367</v>
+      </c>
+      <c r="I92">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>295</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <f>LOG10(B93+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H93" t="s">
+        <v>295</v>
+      </c>
+      <c r="I93">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>370</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <f>LOG10(B94+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H94" t="s">
+        <v>370</v>
+      </c>
+      <c r="I94">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>299</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <f>LOG10(B95+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H95" t="s">
+        <v>299</v>
+      </c>
+      <c r="I95">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>301</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <f>LOG10(B96+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H96" t="s">
+        <v>301</v>
+      </c>
+      <c r="I96">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>304</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <f>LOG10(B97+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H97" t="s">
+        <v>304</v>
+      </c>
+      <c r="I97">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>307</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <f>LOG10(B98+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H98" t="s">
+        <v>307</v>
+      </c>
+      <c r="I98">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>308</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <f>LOG10(B99+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H99" t="s">
+        <v>308</v>
+      </c>
+      <c r="I99">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>311</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <f>LOG10(B100+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H100" t="s">
+        <v>311</v>
+      </c>
+      <c r="I100">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>313</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <f>LOG10(B101+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H101" t="s">
+        <v>313</v>
+      </c>
+      <c r="I101">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>314</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <f>LOG10(B102+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H102" t="s">
+        <v>314</v>
+      </c>
+      <c r="I102">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <f>LOG10(B103+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H103" t="s">
+        <v>316</v>
+      </c>
+      <c r="I103">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <f>LOG10(B104+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H104" t="s">
+        <v>319</v>
+      </c>
+      <c r="I104">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>320</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <f>LOG10(B105+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H105" t="s">
+        <v>320</v>
+      </c>
+      <c r="I105">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>398</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <f>LOG10(B106+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H106" t="s">
+        <v>398</v>
+      </c>
+      <c r="I106">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>321</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <f>LOG10(B107+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H107" t="s">
+        <v>321</v>
+      </c>
+      <c r="I107">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>323</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <f>LOG10(B108+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H108" t="s">
+        <v>323</v>
+      </c>
+      <c r="I108">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>324</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <f>LOG10(B109+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H109" t="s">
+        <v>324</v>
+      </c>
+      <c r="I109">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <f>LOG10(B110+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H110" t="s">
+        <v>326</v>
+      </c>
+      <c r="I110">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>333</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <f>LOG10(B111+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H111" t="s">
+        <v>333</v>
+      </c>
+      <c r="I111">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <f>LOG10(B112+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H112" t="s">
+        <v>334</v>
+      </c>
+      <c r="I112">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>336</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <f>LOG10(B113+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H113" t="s">
+        <v>336</v>
+      </c>
+      <c r="I113">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>346</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <f>LOG10(B114+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H114" t="s">
+        <v>346</v>
+      </c>
+      <c r="I114">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>350</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <f>LOG10(B115+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H115" t="s">
+        <v>350</v>
+      </c>
+      <c r="I115">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>358</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <f>LOG10(B116+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H116" t="s">
+        <v>358</v>
+      </c>
+      <c r="I116">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>359</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <f>LOG10(B117+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H117" t="s">
+        <v>359</v>
+      </c>
+      <c r="I117">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>360</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <f>LOG10(B118+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H118" t="s">
+        <v>360</v>
+      </c>
+      <c r="I118">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>356</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <f>LOG10(B119+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H119" t="s">
+        <v>356</v>
+      </c>
+      <c r="I119">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>368</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <f>LOG10(B120+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H120" t="s">
+        <v>368</v>
+      </c>
+      <c r="I120">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>369</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <f>LOG10(B121+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H121" t="s">
+        <v>369</v>
+      </c>
+      <c r="I121">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>371</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <f>LOG10(B122+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H122" t="s">
+        <v>371</v>
+      </c>
+      <c r="I122">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>372</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <f>LOG10(B123+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H123" t="s">
+        <v>372</v>
+      </c>
+      <c r="I123">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>373</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <f>LOG10(B124+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H124" t="s">
+        <v>373</v>
+      </c>
+      <c r="I124">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>374</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <f>LOG10(B125+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H125" t="s">
+        <v>374</v>
+      </c>
+      <c r="I125">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>375</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <f>LOG10(B126+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H126" t="s">
+        <v>375</v>
+      </c>
+      <c r="I126">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <f>LOG10(B127+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H127" t="s">
+        <v>376</v>
+      </c>
+      <c r="I127">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>377</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <f>LOG10(B128+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H128" t="s">
+        <v>377</v>
+      </c>
+      <c r="I128">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>378</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <f>LOG10(B129+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H129" t="s">
+        <v>378</v>
+      </c>
+      <c r="I129">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <f>LOG10(B130+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H130" t="s">
+        <v>379</v>
+      </c>
+      <c r="I130">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>380</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <f>LOG10(B131+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H131" t="s">
+        <v>380</v>
+      </c>
+      <c r="I131">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>381</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <f>LOG10(B132+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H132" t="s">
+        <v>381</v>
+      </c>
+      <c r="I132">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>382</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <f>LOG10(B133+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H133" t="s">
+        <v>382</v>
+      </c>
+      <c r="I133">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>383</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <f>LOG10(B134+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H134" t="s">
+        <v>383</v>
+      </c>
+      <c r="I134">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>384</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <f>LOG10(B135+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H135" t="s">
+        <v>384</v>
+      </c>
+      <c r="I135">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>425</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <f>LOG10(B136+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H136" t="s">
+        <v>425</v>
+      </c>
+      <c r="I136">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>385</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <f>LOG10(B137+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H137" t="s">
+        <v>385</v>
+      </c>
+      <c r="I137">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>386</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <f>LOG10(B138+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H138" t="s">
+        <v>386</v>
+      </c>
+      <c r="I138">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>387</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <f>LOG10(B139+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H139" t="s">
+        <v>387</v>
+      </c>
+      <c r="I139">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>388</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <f>LOG10(B140+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H140" t="s">
+        <v>388</v>
+      </c>
+      <c r="I140">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>389</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <f>LOG10(B141+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H141" t="s">
+        <v>389</v>
+      </c>
+      <c r="I141">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>390</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <f>LOG10(B142+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H142" t="s">
+        <v>390</v>
+      </c>
+      <c r="I142">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>391</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <f>LOG10(B143+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H143" t="s">
+        <v>391</v>
+      </c>
+      <c r="I143">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>213</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <f>LOG10(B144+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H144" t="s">
+        <v>213</v>
+      </c>
+      <c r="I144">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>215</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <f>LOG10(B145+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H145" t="s">
+        <v>215</v>
+      </c>
+      <c r="I145">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>220</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <f>LOG10(B146+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H146" t="s">
+        <v>220</v>
+      </c>
+      <c r="I146">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>335</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <f>LOG10(B147+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H147" t="s">
+        <v>335</v>
+      </c>
+      <c r="I147">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>394</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <f>LOG10(B148+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H148" t="s">
+        <v>394</v>
+      </c>
+      <c r="I148">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>395</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <f>LOG10(B149+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H149" t="s">
+        <v>395</v>
+      </c>
+      <c r="I149">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>397</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <f>LOG10(B150+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H150" t="s">
+        <v>397</v>
+      </c>
+      <c r="I150">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>400</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <f>LOG10(B151+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H151" t="s">
+        <v>400</v>
+      </c>
+      <c r="I151">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>401</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <f>LOG10(B152+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H152" t="s">
+        <v>401</v>
+      </c>
+      <c r="I152">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>402</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <f>LOG10(B153+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H153" t="s">
+        <v>402</v>
+      </c>
+      <c r="I153">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>403</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <f>LOG10(B154+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H154" t="s">
+        <v>403</v>
+      </c>
+      <c r="I154">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>404</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <f>LOG10(B155+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H155" t="s">
+        <v>404</v>
+      </c>
+      <c r="I155">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>405</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <f>LOG10(B156+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H156" t="s">
+        <v>405</v>
+      </c>
+      <c r="I156">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>406</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <f>LOG10(B157+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H157" t="s">
+        <v>406</v>
+      </c>
+      <c r="I157">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>407</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <f>LOG10(B158+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H158" t="s">
+        <v>407</v>
+      </c>
+      <c r="I158">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>408</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <f>LOG10(B159+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H159" t="s">
+        <v>408</v>
+      </c>
+      <c r="I159">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>409</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <f>LOG10(B160+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H160" t="s">
+        <v>409</v>
+      </c>
+      <c r="I160">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>410</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <f>LOG10(B161+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H161" t="s">
+        <v>410</v>
+      </c>
+      <c r="I161">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>411</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <f>LOG10(B162+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H162" t="s">
+        <v>411</v>
+      </c>
+      <c r="I162">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>412</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <f>LOG10(B163+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H163" t="s">
+        <v>412</v>
+      </c>
+      <c r="I163">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>413</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <f>LOG10(B164+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H164" t="s">
+        <v>413</v>
+      </c>
+      <c r="I164">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>414</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <f>LOG10(B165+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H165" t="s">
+        <v>414</v>
+      </c>
+      <c r="I165">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>415</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <f>LOG10(B166+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H166" t="s">
+        <v>415</v>
+      </c>
+      <c r="I166">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>416</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <f>LOG10(B167+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H167" t="s">
+        <v>416</v>
+      </c>
+      <c r="I167">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>417</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <f>LOG10(B168+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H168" t="s">
+        <v>417</v>
+      </c>
+      <c r="I168">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>418</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <f>LOG10(B169+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H169" t="s">
+        <v>418</v>
+      </c>
+      <c r="I169">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>428</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <f>LOG10(B170+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H170" t="s">
+        <v>428</v>
+      </c>
+      <c r="I170">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <f>LOG10(B171+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H171" t="s">
+        <v>190</v>
+      </c>
+      <c r="I171">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <f>LOG10(B172+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H172" t="s">
+        <v>191</v>
+      </c>
+      <c r="I172">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>431</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <f>LOG10(B173+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H173" t="s">
+        <v>431</v>
+      </c>
+      <c r="I173">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>432</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <f>LOG10(B174+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H174" t="s">
+        <v>432</v>
+      </c>
+      <c r="I174">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>434</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <f>LOG10(B175+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H175" t="s">
+        <v>434</v>
+      </c>
+      <c r="I175">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>192</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <f>LOG10(B176+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H176" t="s">
+        <v>192</v>
+      </c>
+      <c r="I176">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>436</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <f>LOG10(B177+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H177" t="s">
+        <v>436</v>
+      </c>
+      <c r="I177">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>433</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <f>LOG10(B178+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H178" t="s">
+        <v>433</v>
+      </c>
+      <c r="I178">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>257</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <f>LOG10(B179+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H179" t="s">
+        <v>257</v>
+      </c>
+      <c r="I179">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>439</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <f>LOG10(B180+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H180" t="s">
+        <v>439</v>
+      </c>
+      <c r="I180">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>260</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <f>LOG10(B181+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H181" t="s">
+        <v>260</v>
+      </c>
+      <c r="I181">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>440</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <f>LOG10(B182+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H182" t="s">
+        <v>440</v>
+      </c>
+      <c r="I182">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>203</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <f>LOG10(B183+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H183" t="s">
+        <v>203</v>
+      </c>
+      <c r="I183">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>206</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <f>LOG10(B184+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H184" t="s">
+        <v>206</v>
+      </c>
+      <c r="I184">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>278</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <f>LOG10(B185+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H185" t="s">
+        <v>278</v>
+      </c>
+      <c r="I185">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>227</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <f>LOG10(B186+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H186" t="s">
+        <v>227</v>
+      </c>
+      <c r="I186">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>419</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <f>LOG10(B187+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H187" t="s">
+        <v>419</v>
+      </c>
+      <c r="I187">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>420</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <f>LOG10(B188+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H188" t="s">
+        <v>420</v>
+      </c>
+      <c r="I188">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <f>LOG10(B189+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H189" t="s">
+        <v>193</v>
+      </c>
+      <c r="I189">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <f>LOG10(B190+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H190" t="s">
+        <v>194</v>
+      </c>
+      <c r="I190">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <f>LOG10(B191+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H191" t="s">
+        <v>195</v>
+      </c>
+      <c r="I191">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <f>LOG10(B192+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H192" t="s">
+        <v>196</v>
+      </c>
+      <c r="I192">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <f>LOG10(B193+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H193" t="s">
+        <v>197</v>
+      </c>
+      <c r="I193">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <f>LOG10(B194+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H194" t="s">
+        <v>198</v>
+      </c>
+      <c r="I194">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <f>LOG10(B195+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H195" t="s">
+        <v>200</v>
+      </c>
+      <c r="I195">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>421</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <f>LOG10(B196+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H196" t="s">
+        <v>421</v>
+      </c>
+      <c r="I196">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>205</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <f>LOG10(B197+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H197" t="s">
+        <v>205</v>
+      </c>
+      <c r="I197">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>264</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <f>LOG10(B198+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H198" t="s">
+        <v>264</v>
+      </c>
+      <c r="I198">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>267</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <f>LOG10(B199+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H199" t="s">
+        <v>267</v>
+      </c>
+      <c r="I199">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>282</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <f>LOG10(B200+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H200" t="s">
+        <v>282</v>
+      </c>
+      <c r="I200">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>285</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <f>LOG10(B201+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H201" t="s">
+        <v>285</v>
+      </c>
+      <c r="I201">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>286</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <f>LOG10(B202+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H202" t="s">
+        <v>286</v>
+      </c>
+      <c r="I202">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>296</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <f>LOG10(B203+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H203" t="s">
+        <v>296</v>
+      </c>
+      <c r="I203">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>317</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <f>LOG10(B204+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H204" t="s">
+        <v>317</v>
+      </c>
+      <c r="I204">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>392</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <f>LOG10(B205+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H205" t="s">
+        <v>392</v>
+      </c>
+      <c r="I205">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>393</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <f>LOG10(B206+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H206" t="s">
+        <v>393</v>
+      </c>
+      <c r="I206">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>396</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <f>LOG10(B207+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H207" t="s">
+        <v>396</v>
+      </c>
+      <c r="I207">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>281</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <f>LOG10(B208+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H208" t="s">
+        <v>281</v>
+      </c>
+      <c r="I208">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>399</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <f>LOG10(B209+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H209" t="s">
+        <v>399</v>
+      </c>
+      <c r="I209">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>348</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <f>LOG10(B210+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H210" t="s">
+        <v>348</v>
+      </c>
+      <c r="I210">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>427</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <f>LOG10(B211+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H211" t="s">
+        <v>427</v>
+      </c>
+      <c r="I211">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>448</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <f>LOG10(B212+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H212" t="s">
+        <v>448</v>
+      </c>
+      <c r="I212">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>449</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <f>LOG10(B213+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H213" t="s">
+        <v>449</v>
+      </c>
+      <c r="I213">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>229</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <f>LOG10(B214+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H214" t="s">
+        <v>229</v>
+      </c>
+      <c r="I214">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>233</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <f>LOG10(B215+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H215" t="s">
+        <v>233</v>
+      </c>
+      <c r="I215">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>450</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <f>LOG10(B216+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H216" t="s">
+        <v>450</v>
+      </c>
+      <c r="I216">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>235</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <f>LOG10(B217+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H217" t="s">
+        <v>235</v>
+      </c>
+      <c r="I217">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>208</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <f>LOG10(B218+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H218" t="s">
+        <v>208</v>
+      </c>
+      <c r="I218">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>238</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <f>LOG10(B219+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H219" t="s">
+        <v>238</v>
+      </c>
+      <c r="I219">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>240</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <f>LOG10(B220+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H220" t="s">
+        <v>240</v>
+      </c>
+      <c r="I220">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>247</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <f>LOG10(B221+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H221" t="s">
+        <v>247</v>
+      </c>
+      <c r="I221">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>250</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <f>LOG10(B222+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H222" t="s">
+        <v>250</v>
+      </c>
+      <c r="I222">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>357</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <f>LOG10(B223+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H223" t="s">
+        <v>357</v>
+      </c>
+      <c r="I223">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>270</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <f>LOG10(B224+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H224" t="s">
+        <v>270</v>
+      </c>
+      <c r="I224">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>453</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <f>LOG10(B225+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H225" t="s">
+        <v>453</v>
+      </c>
+      <c r="I225">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>455</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <f>LOG10(B226+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H226" t="s">
+        <v>455</v>
+      </c>
+      <c r="I226">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>209</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <f>LOG10(B227+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H227" t="s">
+        <v>209</v>
+      </c>
+      <c r="I227">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>273</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <f>LOG10(B228+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H228" t="s">
+        <v>273</v>
+      </c>
+      <c r="I228">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <f>LOG10(B229+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H229" t="s">
+        <v>228</v>
+      </c>
+      <c r="I229">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>451</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <f>LOG10(B230+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H230" t="s">
+        <v>451</v>
+      </c>
+      <c r="I230">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>349</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <f>LOG10(B231+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H231" t="s">
+        <v>349</v>
+      </c>
+      <c r="I231">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>241</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <f>LOG10(B232+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H232" t="s">
+        <v>241</v>
+      </c>
+      <c r="I232">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>244</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <f>LOG10(B233+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H233" t="s">
+        <v>244</v>
+      </c>
+      <c r="I233">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>341</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <f>LOG10(B234+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H234" t="s">
+        <v>341</v>
+      </c>
+      <c r="I234">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>342</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <f>LOG10(B235+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H235" t="s">
+        <v>342</v>
+      </c>
+      <c r="I235">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>211</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <f>LOG10(B236+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H236" t="s">
+        <v>211</v>
+      </c>
+      <c r="I236">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>452</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <f>LOG10(B237+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H237" t="s">
+        <v>452</v>
+      </c>
+      <c r="I237">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>214</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <f>LOG10(B238+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H238" t="s">
+        <v>214</v>
+      </c>
+      <c r="I238">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>454</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <f>LOG10(B239+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H239" t="s">
+        <v>454</v>
+      </c>
+      <c r="I239">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>456</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <f>LOG10(B240+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H240" t="s">
+        <v>456</v>
+      </c>
+      <c r="I240">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>351</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <f>LOG10(B241+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H241" t="s">
+        <v>351</v>
+      </c>
+      <c r="I241">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>445</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <f>LOG10(B242+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H242" t="s">
+        <v>445</v>
+      </c>
+      <c r="I242">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>435</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <f>LOG10(B243+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H243" t="s">
+        <v>435</v>
+      </c>
+      <c r="I243">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>216</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <f>LOG10(B244+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H244" t="s">
+        <v>216</v>
+      </c>
+      <c r="I244">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>457</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <f>LOG10(B245+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H245" t="s">
+        <v>457</v>
+      </c>
+      <c r="I245">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>251</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <f>LOG10(B246+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H246" t="s">
+        <v>251</v>
+      </c>
+      <c r="I246">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>458</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <f>LOG10(B247+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H247" t="s">
+        <v>458</v>
+      </c>
+      <c r="I247">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>437</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <f>LOG10(B248+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H248" t="s">
+        <v>437</v>
+      </c>
+      <c r="I248">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>459</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <f>LOG10(B249+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H249" t="s">
+        <v>459</v>
+      </c>
+      <c r="I249">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>460</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <f>LOG10(B250+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H250" t="s">
+        <v>460</v>
+      </c>
+      <c r="I250">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>352</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <f>LOG10(B251+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H251" t="s">
+        <v>352</v>
+      </c>
+      <c r="I251">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>343</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <f>LOG10(B252+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H252" t="s">
+        <v>343</v>
+      </c>
+      <c r="I252">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>218</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <f>LOG10(B253+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H253" t="s">
+        <v>218</v>
+      </c>
+      <c r="I253">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>438</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <f>LOG10(B254+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H254" t="s">
+        <v>438</v>
+      </c>
+      <c r="I254">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>242</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <f>LOG10(B255+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H255" t="s">
+        <v>242</v>
+      </c>
+      <c r="I255">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>344</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <f>LOG10(B256+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H256" t="s">
+        <v>344</v>
+      </c>
+      <c r="I256">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>461</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <f>LOG10(B257+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H257" t="s">
+        <v>461</v>
+      </c>
+      <c r="I257">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>361</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <f>LOG10(B258+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H258" t="s">
+        <v>361</v>
+      </c>
+      <c r="I258">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>255</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <f>LOG10(B259+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H259" t="s">
+        <v>255</v>
+      </c>
+      <c r="I259">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>345</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <f>LOG10(B260+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H260" t="s">
+        <v>345</v>
+      </c>
+      <c r="I260">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>221</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <f>LOG10(B261+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H261" t="s">
+        <v>221</v>
+      </c>
+      <c r="I261">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>430</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <f>LOG10(B262+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H262" t="s">
+        <v>430</v>
+      </c>
+      <c r="I262">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>462</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <f>LOG10(B263+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H263" t="s">
+        <v>462</v>
+      </c>
+      <c r="I263">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>463</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <f>LOG10(B264+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H264" t="s">
+        <v>463</v>
+      </c>
+      <c r="I264">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>441</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <f>LOG10(B265+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H265" t="s">
+        <v>441</v>
+      </c>
+      <c r="I265">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>252</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <f>LOG10(B266+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H266" t="s">
+        <v>252</v>
+      </c>
+      <c r="I266">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>347</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <f>LOG10(B267+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H267" t="s">
+        <v>347</v>
+      </c>
+      <c r="I267">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>442</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <f>LOG10(B268+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H268" t="s">
+        <v>442</v>
+      </c>
+      <c r="I268">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>422</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <f>LOG10(B269+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H269" t="s">
+        <v>422</v>
+      </c>
+      <c r="I269">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>429</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <f>LOG10(B270+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H270" t="s">
+        <v>429</v>
+      </c>
+      <c r="I270">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>464</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <f>LOG10(B271+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H271" t="s">
+        <v>464</v>
+      </c>
+      <c r="I271">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>443</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <f>LOG10(B272+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H272" t="s">
+        <v>443</v>
+      </c>
+      <c r="I272">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>465</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <f>LOG10(B273+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H273" t="s">
+        <v>465</v>
+      </c>
+      <c r="I273">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>424</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <f>LOG10(B274+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H274" t="s">
+        <v>424</v>
+      </c>
+      <c r="I274">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>261</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <f>LOG10(B275+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H275" t="s">
+        <v>261</v>
+      </c>
+      <c r="I275">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>444</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <f>LOG10(B276+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H276" t="s">
+        <v>444</v>
+      </c>
+      <c r="I276">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>426</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <f>LOG10(B277+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H277" t="s">
+        <v>426</v>
+      </c>
+      <c r="I277">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>447</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <f>LOG10(B278+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H278" t="s">
+        <v>447</v>
+      </c>
+      <c r="I278">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>362</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <f>LOG10(B279+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H279" t="s">
+        <v>362</v>
+      </c>
+      <c r="I279">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>363</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <f>LOG10(B280+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H280" t="s">
+        <v>363</v>
+      </c>
+      <c r="I280">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>364</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <f>LOG10(B281+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H281" t="s">
+        <v>364</v>
+      </c>
+      <c r="I281">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>446</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <f>LOG10(B282+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H282" t="s">
+        <v>446</v>
+      </c>
+      <c r="I282">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>466</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <f>LOG10(B283+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H283" t="s">
+        <v>466</v>
+      </c>
+      <c r="I283">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>366</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <f>LOG10(B284+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H284" t="s">
+        <v>366</v>
+      </c>
+      <c r="I284">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>423</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <f>LOG10(B285+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H285" t="s">
+        <v>423</v>
+      </c>
+      <c r="I285">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>253</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <f>LOG10(B286+1)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H286" t="s">
+        <v>253</v>
+      </c>
+      <c r="I286">
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>123</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287">
+        <f>LOG10(B287+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H287" t="s">
+        <v>123</v>
+      </c>
+      <c r="I287">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>124</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <f>LOG10(B288+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H288" t="s">
+        <v>124</v>
+      </c>
+      <c r="I288">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>125</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <f>LOG10(B289+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H289" t="s">
+        <v>125</v>
+      </c>
+      <c r="I289">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>126</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <f>LOG10(B290+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H290" t="s">
+        <v>126</v>
+      </c>
+      <c r="I290">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>127</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <f>LOG10(B291+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H291" t="s">
+        <v>127</v>
+      </c>
+      <c r="I291">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>128</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292">
+        <f>LOG10(B292+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H292" t="s">
+        <v>128</v>
+      </c>
+      <c r="I292">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>129</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <f>LOG10(B293+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H293" t="s">
+        <v>129</v>
+      </c>
+      <c r="I293">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>132</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <f>LOG10(B294+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H294" t="s">
+        <v>132</v>
+      </c>
+      <c r="I294">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>135</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295">
+        <f>LOG10(B295+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H295" t="s">
+        <v>135</v>
+      </c>
+      <c r="I295">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>138</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296">
+        <f>LOG10(B296+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H296" t="s">
+        <v>138</v>
+      </c>
+      <c r="I296">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>141</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <f>LOG10(B297+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H297" t="s">
+        <v>141</v>
+      </c>
+      <c r="I297">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>145</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+      <c r="C298">
+        <f>LOG10(B298+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H298" t="s">
+        <v>145</v>
+      </c>
+      <c r="I298">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>146</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299">
+        <f>LOG10(B299+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H299" t="s">
+        <v>146</v>
+      </c>
+      <c r="I299">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>136</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300">
+        <f>LOG10(B300+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H300" t="s">
+        <v>136</v>
+      </c>
+      <c r="I300">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>148</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <f>LOG10(B301+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H301" t="s">
+        <v>148</v>
+      </c>
+      <c r="I301">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>149</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302">
+        <f>LOG10(B302+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H302" t="s">
+        <v>149</v>
+      </c>
+      <c r="I302">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>153</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303">
+        <f>LOG10(B303+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H303" t="s">
+        <v>153</v>
+      </c>
+      <c r="I303">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>159</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <f>LOG10(B304+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H304" t="s">
+        <v>159</v>
+      </c>
+      <c r="I304">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>160</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305">
+        <f>LOG10(B305+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H305" t="s">
+        <v>160</v>
+      </c>
+      <c r="I305">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>162</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <f>LOG10(B306+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H306" t="s">
+        <v>162</v>
+      </c>
+      <c r="I306">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>137</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307">
+        <f>LOG10(B307+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H307" t="s">
+        <v>137</v>
+      </c>
+      <c r="I307">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>164</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <f>LOG10(B308+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H308" t="s">
+        <v>164</v>
+      </c>
+      <c r="I308">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>152</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <f>LOG10(B309+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H309" t="s">
+        <v>152</v>
+      </c>
+      <c r="I309">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>130</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+      <c r="C310">
+        <f>LOG10(B310+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H310" t="s">
+        <v>130</v>
+      </c>
+      <c r="I310">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>165</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <f>LOG10(B311+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H311" t="s">
+        <v>165</v>
+      </c>
+      <c r="I311">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>166</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <f>LOG10(B312+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H312" t="s">
+        <v>166</v>
+      </c>
+      <c r="I312">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>154</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313">
+        <f>LOG10(B313+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H313" t="s">
+        <v>154</v>
+      </c>
+      <c r="I313">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>172</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314">
+        <f>LOG10(B314+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H314" t="s">
+        <v>172</v>
+      </c>
+      <c r="I314">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>155</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <f>LOG10(B315+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H315" t="s">
+        <v>155</v>
+      </c>
+      <c r="I315">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>156</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316">
+        <f>LOG10(B316+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H316" t="s">
+        <v>156</v>
+      </c>
+      <c r="I316">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>157</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <f>LOG10(B317+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H317" t="s">
+        <v>157</v>
+      </c>
+      <c r="I317">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>158</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <f>LOG10(B318+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H318" t="s">
+        <v>158</v>
+      </c>
+      <c r="I318">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>161</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+      <c r="C319">
+        <f>LOG10(B319+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H319" t="s">
+        <v>161</v>
+      </c>
+      <c r="I319">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>163</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <f>LOG10(B320+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H320" t="s">
+        <v>163</v>
+      </c>
+      <c r="I320">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>167</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <f>LOG10(B321+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H321" t="s">
+        <v>167</v>
+      </c>
+      <c r="I321">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>168</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <f>LOG10(B322+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H322" t="s">
+        <v>168</v>
+      </c>
+      <c r="I322">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>169</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323">
+        <f>LOG10(B323+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H323" t="s">
+        <v>169</v>
+      </c>
+      <c r="I323">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>170</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
+        <f>LOG10(B324+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H324" t="s">
+        <v>170</v>
+      </c>
+      <c r="I324">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>173</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <f>LOG10(B325+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H325" t="s">
+        <v>173</v>
+      </c>
+      <c r="I325">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>139</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326">
+        <f>LOG10(B326+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H326" t="s">
+        <v>139</v>
+      </c>
+      <c r="I326">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>131</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327">
+        <f>LOG10(B327+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H327" t="s">
+        <v>131</v>
+      </c>
+      <c r="I327">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>178</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328">
+        <f>LOG10(B328+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H328" t="s">
+        <v>178</v>
+      </c>
+      <c r="I328">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>140</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329">
+        <f>LOG10(B329+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H329" t="s">
+        <v>140</v>
+      </c>
+      <c r="I329">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>142</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="C330">
+        <f>LOG10(B330+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H330" t="s">
+        <v>142</v>
+      </c>
+      <c r="I330">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>143</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+      <c r="C331">
+        <f>LOG10(B331+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H331" t="s">
+        <v>143</v>
+      </c>
+      <c r="I331">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>144</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332">
+        <f>LOG10(B332+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H332" t="s">
+        <v>144</v>
+      </c>
+      <c r="I332">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>133</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333">
+        <f>LOG10(B333+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H333" t="s">
+        <v>133</v>
+      </c>
+      <c r="I333">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>134</v>
+      </c>
+      <c r="B334">
+        <v>2</v>
+      </c>
+      <c r="C334">
+        <f>LOG10(B334+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H334" t="s">
+        <v>134</v>
+      </c>
+      <c r="I334">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>147</v>
+      </c>
+      <c r="B335">
+        <v>2</v>
+      </c>
+      <c r="C335">
+        <f>LOG10(B335+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H335" t="s">
+        <v>147</v>
+      </c>
+      <c r="I335">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>179</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336">
+        <f>LOG10(B336+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H336" t="s">
+        <v>179</v>
+      </c>
+      <c r="I336">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>174</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <f>LOG10(B337+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H337" t="s">
+        <v>174</v>
+      </c>
+      <c r="I337">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>150</v>
+      </c>
+      <c r="B338">
+        <v>2</v>
+      </c>
+      <c r="C338">
+        <f>LOG10(B338+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H338" t="s">
+        <v>150</v>
+      </c>
+      <c r="I338">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>151</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <f>LOG10(B339+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H339" t="s">
+        <v>151</v>
+      </c>
+      <c r="I339">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>180</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+      <c r="C340">
+        <f>LOG10(B340+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H340" t="s">
+        <v>180</v>
+      </c>
+      <c r="I340">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>176</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+      <c r="C341">
+        <f>LOG10(B341+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H341" t="s">
+        <v>176</v>
+      </c>
+      <c r="I341">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>175</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342">
+        <f>LOG10(B342+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H342" t="s">
+        <v>175</v>
+      </c>
+      <c r="I342">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>177</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <f>LOG10(B343+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H343" t="s">
+        <v>177</v>
+      </c>
+      <c r="I343">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>171</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344">
+        <f>LOG10(B344+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H344" t="s">
+        <v>171</v>
+      </c>
+      <c r="I344">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>181</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345">
+        <f>LOG10(B345+1)</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H345" t="s">
+        <v>181</v>
+      </c>
+      <c r="I345">
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>91</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <f>LOG10(B346+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H346" t="s">
+        <v>91</v>
+      </c>
+      <c r="I346">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>92</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+      <c r="C347">
+        <f>LOG10(B347+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H347" t="s">
+        <v>92</v>
+      </c>
+      <c r="I347">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>95</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348">
+        <f>LOG10(B348+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H348" t="s">
+        <v>95</v>
+      </c>
+      <c r="I348">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>96</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <f>LOG10(B349+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H349" t="s">
+        <v>96</v>
+      </c>
+      <c r="I349">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>97</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350">
+        <f>LOG10(B350+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H350" t="s">
+        <v>97</v>
+      </c>
+      <c r="I350">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>99</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351">
+        <f>LOG10(B351+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H351" t="s">
+        <v>99</v>
+      </c>
+      <c r="I351">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>100</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <f>LOG10(B352+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H352" t="s">
+        <v>100</v>
+      </c>
+      <c r="I352">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>101</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353">
+        <f>LOG10(B353+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H353" t="s">
+        <v>101</v>
+      </c>
+      <c r="I353">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>103</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354">
+        <f>LOG10(B354+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H354" t="s">
+        <v>103</v>
+      </c>
+      <c r="I354">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>105</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <f>LOG10(B355+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H355" t="s">
+        <v>105</v>
+      </c>
+      <c r="I355">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>102</v>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+      <c r="C356">
+        <f>LOG10(B356+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H356" t="s">
+        <v>102</v>
+      </c>
+      <c r="I356">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>108</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <f>LOG10(B357+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H357" t="s">
+        <v>108</v>
+      </c>
+      <c r="I357">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>110</v>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="C358">
+        <f>LOG10(B358+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H358" t="s">
+        <v>110</v>
+      </c>
+      <c r="I358">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>112</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359">
+        <f>LOG10(B359+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H359" t="s">
+        <v>112</v>
+      </c>
+      <c r="I359">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>113</v>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+      <c r="C360">
+        <f>LOG10(B360+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H360" t="s">
+        <v>113</v>
+      </c>
+      <c r="I360">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>114</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <f>LOG10(B361+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H361" t="s">
+        <v>114</v>
+      </c>
+      <c r="I361">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>104</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <f>LOG10(B362+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H362" t="s">
+        <v>104</v>
+      </c>
+      <c r="I362">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>116</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+      <c r="C363">
+        <f>LOG10(B363+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H363" t="s">
+        <v>116</v>
+      </c>
+      <c r="I363">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>119</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <f>LOG10(B364+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H364" t="s">
+        <v>119</v>
+      </c>
+      <c r="I364">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>107</v>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+      <c r="C365">
+        <f>LOG10(B365+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H365" t="s">
+        <v>107</v>
+      </c>
+      <c r="I365">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>109</v>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+      <c r="C366">
+        <f>LOG10(B366+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H366" t="s">
+        <v>109</v>
+      </c>
+      <c r="I366">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>111</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <f>LOG10(B367+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H367" t="s">
+        <v>111</v>
+      </c>
+      <c r="I367">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>115</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+      <c r="C368">
+        <f>LOG10(B368+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H368" t="s">
+        <v>115</v>
+      </c>
+      <c r="I368">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>117</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+      <c r="C369">
+        <f>LOG10(B369+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H369" t="s">
+        <v>117</v>
+      </c>
+      <c r="I369">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>118</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370">
+        <f>LOG10(B370+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H370" t="s">
+        <v>118</v>
+      </c>
+      <c r="I370">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>121</v>
+      </c>
+      <c r="B371">
+        <v>3</v>
+      </c>
+      <c r="C371">
+        <f>LOG10(B371+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H371" t="s">
+        <v>121</v>
+      </c>
+      <c r="I371">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>120</v>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+      <c r="C372">
+        <f>LOG10(B372+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H372" t="s">
+        <v>120</v>
+      </c>
+      <c r="I372">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>122</v>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373">
+        <f>LOG10(B373+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H373" t="s">
+        <v>122</v>
+      </c>
+      <c r="I373">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>106</v>
+      </c>
+      <c r="B374">
+        <v>3</v>
+      </c>
+      <c r="C374">
+        <f>LOG10(B374+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H374" t="s">
+        <v>106</v>
+      </c>
+      <c r="I374">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>94</v>
+      </c>
+      <c r="B375">
+        <v>3</v>
+      </c>
+      <c r="C375">
+        <f>LOG10(B375+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H375" t="s">
+        <v>94</v>
+      </c>
+      <c r="I375">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>98</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <f>LOG10(B376+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H376" t="s">
+        <v>98</v>
+      </c>
+      <c r="I376">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>93</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+      <c r="C377">
+        <f>LOG10(B377+1)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H377" t="s">
+        <v>93</v>
+      </c>
+      <c r="I377">
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>79</v>
+      </c>
+      <c r="B378">
+        <v>4</v>
+      </c>
+      <c r="C378">
+        <f>LOG10(B378+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H378" t="s">
+        <v>79</v>
+      </c>
+      <c r="I378">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>80</v>
+      </c>
+      <c r="B379">
+        <v>4</v>
+      </c>
+      <c r="C379">
+        <f>LOG10(B379+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H379" t="s">
+        <v>80</v>
+      </c>
+      <c r="I379">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>83</v>
+      </c>
+      <c r="B380">
+        <v>4</v>
+      </c>
+      <c r="C380">
+        <f>LOG10(B380+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H380" t="s">
+        <v>83</v>
+      </c>
+      <c r="I380">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>84</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <f>LOG10(B381+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H381" t="s">
+        <v>84</v>
+      </c>
+      <c r="I381">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>86</v>
+      </c>
+      <c r="B382">
+        <v>4</v>
+      </c>
+      <c r="C382">
+        <f>LOG10(B382+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H382" t="s">
+        <v>86</v>
+      </c>
+      <c r="I382">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>81</v>
+      </c>
+      <c r="B383">
+        <v>4</v>
+      </c>
+      <c r="C383">
+        <f>LOG10(B383+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H383" t="s">
+        <v>81</v>
+      </c>
+      <c r="I383">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>82</v>
+      </c>
+      <c r="B384">
+        <v>4</v>
+      </c>
+      <c r="C384">
+        <f>LOG10(B384+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H384" t="s">
+        <v>82</v>
+      </c>
+      <c r="I384">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>85</v>
+      </c>
+      <c r="B385">
+        <v>4</v>
+      </c>
+      <c r="C385">
+        <f>LOG10(B385+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H385" t="s">
+        <v>85</v>
+      </c>
+      <c r="I385">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>87</v>
+      </c>
+      <c r="B386">
+        <v>4</v>
+      </c>
+      <c r="C386">
+        <f>LOG10(B386+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H386" t="s">
+        <v>87</v>
+      </c>
+      <c r="I386">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>88</v>
+      </c>
+      <c r="B387">
+        <v>4</v>
+      </c>
+      <c r="C387">
+        <f>LOG10(B387+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H387" t="s">
+        <v>88</v>
+      </c>
+      <c r="I387">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>89</v>
+      </c>
+      <c r="B388">
+        <v>4</v>
+      </c>
+      <c r="C388">
+        <f>LOG10(B388+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H388" t="s">
+        <v>89</v>
+      </c>
+      <c r="I388">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>90</v>
+      </c>
+      <c r="B389">
+        <v>4</v>
+      </c>
+      <c r="C389">
+        <f>LOG10(B389+1)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H389" t="s">
+        <v>90</v>
+      </c>
+      <c r="I389">
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>69</v>
+      </c>
+      <c r="B390">
+        <v>5</v>
+      </c>
+      <c r="C390">
+        <f>LOG10(B390+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H390" t="s">
+        <v>69</v>
+      </c>
+      <c r="I390">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>70</v>
+      </c>
+      <c r="B391">
+        <v>5</v>
+      </c>
+      <c r="C391">
+        <f>LOG10(B391+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H391" t="s">
+        <v>70</v>
+      </c>
+      <c r="I391">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>71</v>
+      </c>
+      <c r="B392">
+        <v>5</v>
+      </c>
+      <c r="C392">
+        <f>LOG10(B392+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H392" t="s">
+        <v>71</v>
+      </c>
+      <c r="I392">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>67</v>
+      </c>
+      <c r="B393">
+        <v>5</v>
+      </c>
+      <c r="C393">
+        <f>LOG10(B393+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H393" t="s">
+        <v>67</v>
+      </c>
+      <c r="I393">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>74</v>
+      </c>
+      <c r="B394">
+        <v>5</v>
+      </c>
+      <c r="C394">
+        <f>LOG10(B394+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H394" t="s">
+        <v>74</v>
+      </c>
+      <c r="I394">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>75</v>
+      </c>
+      <c r="B395">
+        <v>5</v>
+      </c>
+      <c r="C395">
+        <f>LOG10(B395+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H395" t="s">
+        <v>75</v>
+      </c>
+      <c r="I395">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>68</v>
+      </c>
+      <c r="B396">
+        <v>5</v>
+      </c>
+      <c r="C396">
+        <f>LOG10(B396+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H396" t="s">
+        <v>68</v>
+      </c>
+      <c r="I396">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>72</v>
+      </c>
+      <c r="B397">
+        <v>5</v>
+      </c>
+      <c r="C397">
+        <f>LOG10(B397+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H397" t="s">
+        <v>72</v>
+      </c>
+      <c r="I397">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>76</v>
+      </c>
+      <c r="B398">
+        <v>5</v>
+      </c>
+      <c r="C398">
+        <f>LOG10(B398+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H398" t="s">
+        <v>76</v>
+      </c>
+      <c r="I398">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>77</v>
+      </c>
+      <c r="B399">
+        <v>5</v>
+      </c>
+      <c r="C399">
+        <f>LOG10(B399+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H399" t="s">
+        <v>77</v>
+      </c>
+      <c r="I399">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>78</v>
+      </c>
+      <c r="B400">
+        <v>5</v>
+      </c>
+      <c r="C400">
+        <f>LOG10(B400+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H400" t="s">
+        <v>78</v>
+      </c>
+      <c r="I400">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>73</v>
+      </c>
+      <c r="B401">
+        <v>5</v>
+      </c>
+      <c r="C401">
+        <f>LOG10(B401+1)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H401" t="s">
+        <v>73</v>
+      </c>
+      <c r="I401">
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>53</v>
+      </c>
+      <c r="B402">
+        <v>6</v>
+      </c>
+      <c r="C402">
+        <f>LOG10(B402+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H402" t="s">
+        <v>53</v>
+      </c>
+      <c r="I402">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>54</v>
+      </c>
+      <c r="B403">
+        <v>6</v>
+      </c>
+      <c r="C403">
+        <f>LOG10(B403+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H403" t="s">
+        <v>54</v>
+      </c>
+      <c r="I403">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>55</v>
+      </c>
+      <c r="B404">
+        <v>6</v>
+      </c>
+      <c r="C404">
+        <f>LOG10(B404+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H404" t="s">
+        <v>55</v>
+      </c>
+      <c r="I404">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>56</v>
+      </c>
+      <c r="B405">
+        <v>6</v>
+      </c>
+      <c r="C405">
+        <f>LOG10(B405+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H405" t="s">
+        <v>56</v>
+      </c>
+      <c r="I405">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>59</v>
+      </c>
+      <c r="B406">
+        <v>6</v>
+      </c>
+      <c r="C406">
+        <f>LOG10(B406+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H406" t="s">
+        <v>59</v>
+      </c>
+      <c r="I406">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>61</v>
+      </c>
+      <c r="B407">
+        <v>6</v>
+      </c>
+      <c r="C407">
+        <f>LOG10(B407+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H407" t="s">
+        <v>61</v>
+      </c>
+      <c r="I407">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>58</v>
+      </c>
+      <c r="B408">
+        <v>6</v>
+      </c>
+      <c r="C408">
+        <f>LOG10(B408+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H408" t="s">
+        <v>58</v>
+      </c>
+      <c r="I408">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>60</v>
+      </c>
+      <c r="B409">
+        <v>6</v>
+      </c>
+      <c r="C409">
+        <f>LOG10(B409+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H409" t="s">
+        <v>60</v>
+      </c>
+      <c r="I409">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>62</v>
+      </c>
+      <c r="B410">
+        <v>6</v>
+      </c>
+      <c r="C410">
+        <f>LOG10(B410+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H410" t="s">
+        <v>62</v>
+      </c>
+      <c r="I410">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>63</v>
+      </c>
+      <c r="B411">
+        <v>6</v>
+      </c>
+      <c r="C411">
+        <f>LOG10(B411+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H411" t="s">
+        <v>63</v>
+      </c>
+      <c r="I411">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>64</v>
+      </c>
+      <c r="B412">
+        <v>6</v>
+      </c>
+      <c r="C412">
+        <f>LOG10(B412+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H412" t="s">
+        <v>64</v>
+      </c>
+      <c r="I412">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>65</v>
+      </c>
+      <c r="B413">
+        <v>6</v>
+      </c>
+      <c r="C413">
+        <f>LOG10(B413+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H413" t="s">
+        <v>65</v>
+      </c>
+      <c r="I413">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>57</v>
+      </c>
+      <c r="B414">
+        <v>6</v>
+      </c>
+      <c r="C414">
+        <f>LOG10(B414+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H414" t="s">
+        <v>57</v>
+      </c>
+      <c r="I414">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>66</v>
+      </c>
+      <c r="B415">
+        <v>6</v>
+      </c>
+      <c r="C415">
+        <f>LOG10(B415+1)</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H415" t="s">
+        <v>66</v>
+      </c>
+      <c r="I415">
+        <v>0.84509804001425681</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>45</v>
+      </c>
+      <c r="B416">
+        <v>7</v>
+      </c>
+      <c r="C416">
+        <f>LOG10(B416+1)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="H416" t="s">
+        <v>45</v>
+      </c>
+      <c r="I416">
+        <v>0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>47</v>
+      </c>
+      <c r="B417">
+        <v>7</v>
+      </c>
+      <c r="C417">
+        <f>LOG10(B417+1)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="H417" t="s">
+        <v>47</v>
+      </c>
+      <c r="I417">
+        <v>0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>46</v>
+      </c>
+      <c r="B418">
+        <v>7</v>
+      </c>
+      <c r="C418">
+        <f>LOG10(B418+1)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="H418" t="s">
+        <v>46</v>
+      </c>
+      <c r="I418">
+        <v>0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>48</v>
+      </c>
+      <c r="B419">
+        <v>7</v>
+      </c>
+      <c r="C419">
+        <f>LOG10(B419+1)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="H419" t="s">
+        <v>48</v>
+      </c>
+      <c r="I419">
+        <v>0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>49</v>
+      </c>
+      <c r="B420">
+        <v>7</v>
+      </c>
+      <c r="C420">
+        <f>LOG10(B420+1)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="H420" t="s">
+        <v>49</v>
+      </c>
+      <c r="I420">
+        <v>0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>50</v>
+      </c>
+      <c r="B421">
+        <v>7</v>
+      </c>
+      <c r="C421">
+        <f>LOG10(B421+1)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="H421" t="s">
+        <v>50</v>
+      </c>
+      <c r="I421">
+        <v>0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>51</v>
+      </c>
+      <c r="B422">
+        <v>7</v>
+      </c>
+      <c r="C422">
+        <f>LOG10(B422+1)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="H422" t="s">
+        <v>51</v>
+      </c>
+      <c r="I422">
+        <v>0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>52</v>
+      </c>
+      <c r="B423">
+        <v>7</v>
+      </c>
+      <c r="C423">
+        <f>LOG10(B423+1)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="H423" t="s">
+        <v>52</v>
+      </c>
+      <c r="I423">
+        <v>0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>44</v>
+      </c>
+      <c r="B424">
+        <v>8</v>
+      </c>
+      <c r="C424">
+        <f>LOG10(B424+1)</f>
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="H424" t="s">
+        <v>44</v>
+      </c>
+      <c r="I424">
+        <v>0.95424250943932487</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>42</v>
+      </c>
+      <c r="B425">
+        <v>9</v>
+      </c>
+      <c r="C425">
+        <f>LOG10(B425+1)</f>
+        <v>1</v>
+      </c>
+      <c r="H425" t="s">
+        <v>42</v>
+      </c>
+      <c r="I425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>43</v>
+      </c>
+      <c r="B426">
+        <v>9</v>
+      </c>
+      <c r="C426">
+        <f>LOG10(B426+1)</f>
+        <v>1</v>
+      </c>
+      <c r="H426" t="s">
+        <v>43</v>
+      </c>
+      <c r="I426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>36</v>
+      </c>
+      <c r="B427">
+        <v>10</v>
+      </c>
+      <c r="C427">
+        <f>LOG10(B427+1)</f>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="H427" t="s">
+        <v>36</v>
+      </c>
+      <c r="I427">
+        <v>1.0413926851582251</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>37</v>
+      </c>
+      <c r="B428">
+        <v>10</v>
+      </c>
+      <c r="C428">
+        <f>LOG10(B428+1)</f>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="H428" t="s">
+        <v>37</v>
+      </c>
+      <c r="I428">
+        <v>1.0413926851582251</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>38</v>
+      </c>
+      <c r="B429">
+        <v>10</v>
+      </c>
+      <c r="C429">
+        <f>LOG10(B429+1)</f>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="H429" t="s">
+        <v>38</v>
+      </c>
+      <c r="I429">
+        <v>1.0413926851582251</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>39</v>
+      </c>
+      <c r="B430">
+        <v>10</v>
+      </c>
+      <c r="C430">
+        <f>LOG10(B430+1)</f>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="H430" t="s">
+        <v>39</v>
+      </c>
+      <c r="I430">
+        <v>1.0413926851582251</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>40</v>
+      </c>
+      <c r="B431">
+        <v>10</v>
+      </c>
+      <c r="C431">
+        <f>LOG10(B431+1)</f>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="H431" t="s">
+        <v>40</v>
+      </c>
+      <c r="I431">
+        <v>1.0413926851582251</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>41</v>
+      </c>
+      <c r="B432">
+        <v>10</v>
+      </c>
+      <c r="C432">
+        <f>LOG10(B432+1)</f>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="H432" t="s">
+        <v>41</v>
+      </c>
+      <c r="I432">
+        <v>1.0413926851582251</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>32</v>
+      </c>
+      <c r="B433">
+        <v>11</v>
+      </c>
+      <c r="C433">
+        <f>LOG10(B433+1)</f>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="H433" t="s">
+        <v>32</v>
+      </c>
+      <c r="I433">
+        <v>1.0791812460476249</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>33</v>
+      </c>
+      <c r="B434">
+        <v>11</v>
+      </c>
+      <c r="C434">
+        <f>LOG10(B434+1)</f>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="H434" t="s">
+        <v>33</v>
+      </c>
+      <c r="I434">
+        <v>1.0791812460476249</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>34</v>
+      </c>
+      <c r="B435">
+        <v>11</v>
+      </c>
+      <c r="C435">
+        <f>LOG10(B435+1)</f>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="H435" t="s">
+        <v>34</v>
+      </c>
+      <c r="I435">
+        <v>1.0791812460476249</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>35</v>
+      </c>
+      <c r="B436">
+        <v>11</v>
+      </c>
+      <c r="C436">
+        <f>LOG10(B436+1)</f>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="H436" t="s">
+        <v>35</v>
+      </c>
+      <c r="I436">
+        <v>1.0791812460476249</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>30</v>
+      </c>
+      <c r="B437">
+        <v>12</v>
+      </c>
+      <c r="C437">
+        <f>LOG10(B437+1)</f>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="H437" t="s">
+        <v>30</v>
+      </c>
+      <c r="I437">
+        <v>1.1139433523068367</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>31</v>
+      </c>
+      <c r="B438">
+        <v>12</v>
+      </c>
+      <c r="C438">
+        <f>LOG10(B438+1)</f>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="H438" t="s">
+        <v>31</v>
+      </c>
+      <c r="I438">
+        <v>1.1139433523068367</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>26</v>
+      </c>
+      <c r="B439">
+        <v>13</v>
+      </c>
+      <c r="C439">
+        <f>LOG10(B439+1)</f>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="H439" t="s">
+        <v>26</v>
+      </c>
+      <c r="I439">
+        <v>1.146128035678238</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>27</v>
+      </c>
+      <c r="B440">
+        <v>13</v>
+      </c>
+      <c r="C440">
+        <f>LOG10(B440+1)</f>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="H440" t="s">
+        <v>27</v>
+      </c>
+      <c r="I440">
+        <v>1.146128035678238</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>28</v>
+      </c>
+      <c r="B441">
+        <v>13</v>
+      </c>
+      <c r="C441">
+        <f>LOG10(B441+1)</f>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="H441" t="s">
+        <v>28</v>
+      </c>
+      <c r="I441">
+        <v>1.146128035678238</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>29</v>
+      </c>
+      <c r="B442">
+        <v>13</v>
+      </c>
+      <c r="C442">
+        <f>LOG10(B442+1)</f>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="H442" t="s">
+        <v>29</v>
+      </c>
+      <c r="I442">
+        <v>1.146128035678238</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>25</v>
+      </c>
+      <c r="B443">
+        <v>14</v>
+      </c>
+      <c r="C443">
+        <f>LOG10(B443+1)</f>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="H443" t="s">
+        <v>25</v>
+      </c>
+      <c r="I443">
+        <v>1.1760912590556813</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>22</v>
+      </c>
+      <c r="B444">
+        <v>15</v>
+      </c>
+      <c r="C444">
+        <f>LOG10(B444+1)</f>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="H444" t="s">
+        <v>22</v>
+      </c>
+      <c r="I444">
+        <v>1.2041199826559248</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>23</v>
+      </c>
+      <c r="B445">
+        <v>15</v>
+      </c>
+      <c r="C445">
+        <f>LOG10(B445+1)</f>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="H445" t="s">
+        <v>23</v>
+      </c>
+      <c r="I445">
+        <v>1.2041199826559248</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>24</v>
+      </c>
+      <c r="B446">
+        <v>15</v>
+      </c>
+      <c r="C446">
+        <f>LOG10(B446+1)</f>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="H446" t="s">
+        <v>24</v>
+      </c>
+      <c r="I446">
+        <v>1.2041199826559248</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>20</v>
+      </c>
+      <c r="B447">
+        <v>16</v>
+      </c>
+      <c r="C447">
+        <f>LOG10(B447+1)</f>
+        <v>1.2304489213782739</v>
+      </c>
+      <c r="H447" t="s">
+        <v>20</v>
+      </c>
+      <c r="I447">
+        <v>1.2304489213782739</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>21</v>
+      </c>
+      <c r="B448">
+        <v>16</v>
+      </c>
+      <c r="C448">
+        <f>LOG10(B448+1)</f>
+        <v>1.2304489213782739</v>
+      </c>
+      <c r="H448" t="s">
+        <v>21</v>
+      </c>
+      <c r="I448">
+        <v>1.2304489213782739</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>19</v>
+      </c>
+      <c r="B449">
+        <v>17</v>
+      </c>
+      <c r="C449">
+        <f>LOG10(B449+1)</f>
+        <v>1.255272505103306</v>
+      </c>
+      <c r="H449" t="s">
+        <v>19</v>
+      </c>
+      <c r="I449">
+        <v>1.255272505103306</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>17</v>
+      </c>
+      <c r="B450">
+        <v>21</v>
+      </c>
+      <c r="C450">
+        <f>LOG10(B450+1)</f>
+        <v>1.3424226808222062</v>
+      </c>
+      <c r="H450" t="s">
+        <v>17</v>
+      </c>
+      <c r="I450">
+        <v>1.3424226808222062</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>18</v>
+      </c>
+      <c r="B451">
+        <v>21</v>
+      </c>
+      <c r="C451">
+        <f>LOG10(B451+1)</f>
+        <v>1.3424226808222062</v>
+      </c>
+      <c r="H451" t="s">
+        <v>18</v>
+      </c>
+      <c r="I451">
+        <v>1.3424226808222062</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>16</v>
+      </c>
+      <c r="B452">
+        <v>33</v>
+      </c>
+      <c r="C452">
+        <f>LOG10(B452+1)</f>
+        <v>1.5314789170422551</v>
+      </c>
+      <c r="H452" t="s">
+        <v>16</v>
+      </c>
+      <c r="I452">
+        <v>1.5314789170422551</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>15</v>
+      </c>
+      <c r="B453">
+        <v>37</v>
+      </c>
+      <c r="C453">
+        <f>LOG10(B453+1)</f>
+        <v>1.5797835966168101</v>
+      </c>
+      <c r="H453" t="s">
+        <v>15</v>
+      </c>
+      <c r="I453">
+        <v>1.5797835966168101</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>14</v>
+      </c>
+      <c r="B454">
+        <v>39</v>
+      </c>
+      <c r="C454">
+        <f>LOG10(B454+1)</f>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="H454" t="s">
+        <v>14</v>
+      </c>
+      <c r="I454">
+        <v>1.6020599913279623</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>12</v>
+      </c>
+      <c r="B455">
+        <v>41</v>
+      </c>
+      <c r="C455">
+        <f>LOG10(B455+1)</f>
+        <v>1.6232492903979006</v>
+      </c>
+      <c r="H455" t="s">
+        <v>12</v>
+      </c>
+      <c r="I455">
+        <v>1.6232492903979006</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>13</v>
+      </c>
+      <c r="B456">
+        <v>41</v>
+      </c>
+      <c r="C456">
+        <f>LOG10(B456+1)</f>
+        <v>1.6232492903979006</v>
+      </c>
+      <c r="H456" t="s">
+        <v>13</v>
+      </c>
+      <c r="I456">
+        <v>1.6232492903979006</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>11</v>
+      </c>
+      <c r="B457">
+        <v>54</v>
+      </c>
+      <c r="C457">
+        <f>LOG10(B457+1)</f>
+        <v>1.7403626894942439</v>
+      </c>
+      <c r="H457" t="s">
+        <v>11</v>
+      </c>
+      <c r="I457">
+        <v>1.7403626894942439</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>10</v>
+      </c>
+      <c r="B458">
+        <v>58</v>
+      </c>
+      <c r="C458">
+        <f>LOG10(B458+1)</f>
+        <v>1.7708520116421442</v>
+      </c>
+      <c r="H458" t="s">
+        <v>10</v>
+      </c>
+      <c r="I458">
+        <v>1.7708520116421442</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>9</v>
+      </c>
+      <c r="B459">
+        <v>63</v>
+      </c>
+      <c r="C459">
+        <f>LOG10(B459+1)</f>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="H459" t="s">
+        <v>9</v>
+      </c>
+      <c r="I459">
+        <v>1.8061799739838871</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>8</v>
+      </c>
+      <c r="B460">
+        <v>206</v>
+      </c>
+      <c r="C460">
+        <f>LOG10(B460+1)</f>
+        <v>2.3159703454569178</v>
+      </c>
+      <c r="H460" t="s">
+        <v>8</v>
+      </c>
+      <c r="I460">
+        <v>2.3159703454569178</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>7</v>
+      </c>
+      <c r="B461">
+        <v>257</v>
+      </c>
+      <c r="C461">
+        <f>LOG10(B461+1)</f>
+        <v>2.4116197059632301</v>
+      </c>
+      <c r="H461" t="s">
+        <v>7</v>
+      </c>
+      <c r="I461">
+        <v>2.4116197059632301</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>6</v>
+      </c>
+      <c r="B462">
+        <v>284</v>
+      </c>
+      <c r="C462">
+        <f>LOG10(B462+1)</f>
+        <v>2.4548448600085102</v>
+      </c>
+      <c r="H462" t="s">
+        <v>6</v>
+      </c>
+      <c r="I462">
+        <v>2.4548448600085102</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463">
+        <v>334</v>
+      </c>
+      <c r="C463">
+        <f>LOG10(B463+1)</f>
+        <v>2.5250448070368452</v>
+      </c>
+      <c r="H463" t="s">
+        <v>5</v>
+      </c>
+      <c r="I463">
+        <v>2.5250448070368452</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B464">
+        <v>374</v>
+      </c>
+      <c r="C464">
+        <f>LOG10(B464+1)</f>
+        <v>2.5740312677277188</v>
+      </c>
+      <c r="H464" t="s">
+        <v>4</v>
+      </c>
+      <c r="I464">
+        <v>2.5740312677277188</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>3</v>
+      </c>
+      <c r="B465">
+        <v>1333</v>
+      </c>
+      <c r="C465">
+        <f>LOG10(B465+1)</f>
+        <v>3.12515582958053</v>
+      </c>
+      <c r="H465" t="s">
+        <v>3</v>
+      </c>
+      <c r="I465">
+        <v>3.12515582958053</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>2</v>
+      </c>
+      <c r="B466">
+        <v>2032</v>
+      </c>
+      <c r="C466">
+        <f>LOG10(B466+1)</f>
+        <v>3.3081373786380386</v>
+      </c>
+      <c r="H466" t="s">
+        <v>2</v>
+      </c>
+      <c r="I466">
+        <v>3.3081373786380386</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>1</v>
+      </c>
+      <c r="B467">
+        <v>2451</v>
+      </c>
+      <c r="C467">
+        <f>LOG10(B467+1)</f>
+        <v>3.3895204658463776</v>
+      </c>
+      <c r="H467" t="s">
+        <v>1</v>
+      </c>
+      <c r="I467">
+        <v>3.3895204658463776</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C467">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>